--- a/biology/Médecine/Splanchnocrâne/Splanchnocrâne.xlsx
+++ b/biology/Médecine/Splanchnocrâne/Splanchnocrâne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Splanchnocr%C3%A2ne</t>
+          <t>Splanchnocrâne</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le splanchnocrâne (ou crâne facial) forme avec le neurocrâne, le crâne. 
 Pour l'embryon, le splanchnocrâne (ou viscérocrâne) est la partie de son crâne dont dérive le squelette de la face.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Splanchnocr%C3%A2ne</t>
+          <t>Splanchnocrâne</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,8 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Crâne facial
-Il est constitué d'un massif osseux d'origine cartilagineuse fixé à la partie inférieure du crâne cérébral.
+          <t>Crâne facial</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Il est constitué d'un massif osseux d'origine cartilagineuse fixé à la partie inférieure du crâne cérébral.
 Chez l'être humain, le splanchnocrâne est généralement considéré comme comprenant les quatorze (14) os suivants :
 deux os nasaux
 deux os lacrymaux
@@ -524,9 +541,43 @@
 un vomer
 deux os maxillaires
 deux os zygomatiques
-une mandibule.
-Viscérocrâne
-Le viscérocrâne est constitué de paires d'arc branchiaux, reliés au niveau ventral. Au cours de l'évolution ces arcs se transforment. Le premier arc branchial donnera l'arc mandibulaire, le second l'arc hyoïde. Les cinq arcs suivants s'associeront au deuxième arc.
+une mandibule.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Splanchnocrâne</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Splanchnocr%C3%A2ne</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Structure</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Viscérocrâne</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le viscérocrâne est constitué de paires d'arc branchiaux, reliés au niveau ventral. Au cours de l'évolution ces arcs se transforment. Le premier arc branchial donnera l'arc mandibulaire, le second l'arc hyoïde. Les cinq arcs suivants s'associeront au deuxième arc.
 Il se forme au cours de la cinquième semaine de vie embryonnaire avec les deux premiers arcs branchiaux. Les premiers points d'ossification apparaissent à la fin du quatrième mois.
 </t>
         </is>
